--- a/data_voor_swing/aggregatietabellen/gemeente_uitrustingsgraad.xlsx
+++ b/data_voor_swing/aggregatietabellen/gemeente_uitrustingsgraad.xlsx
@@ -406,7 +406,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -416,7 +416,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -436,7 +436,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -446,7 +446,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>

--- a/data_voor_swing/aggregatietabellen/gemeente_uitrustingsgraad.xlsx
+++ b/data_voor_swing/aggregatietabellen/gemeente_uitrustingsgraad.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,17 +442,17 @@
     </row>
     <row r="6" spans="1:2" s="0" outlineLevel="0">
       <c r="A6" s="23">
-        <v>11007</v>
+        <v>11008</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="7" spans="1:2" s="0" outlineLevel="0">
       <c r="A7" s="23">
-        <v>11008</v>
+        <v>11009</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -462,7 +462,7 @@
     </row>
     <row r="8" spans="1:2" s="0" outlineLevel="0">
       <c r="A8" s="23">
-        <v>11009</v>
+        <v>11013</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
     </row>
     <row r="9" spans="1:2" s="0" outlineLevel="0">
       <c r="A9" s="23">
-        <v>11013</v>
+        <v>11016</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -482,17 +482,17 @@
     </row>
     <row r="10" spans="1:2" s="0" outlineLevel="0">
       <c r="A10" s="23">
-        <v>11016</v>
+        <v>11018</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="11" spans="1:2" s="0" outlineLevel="0">
       <c r="A11" s="23">
-        <v>11018</v>
+        <v>11021</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -502,17 +502,17 @@
     </row>
     <row r="12" spans="1:2" s="0" outlineLevel="0">
       <c r="A12" s="23">
-        <v>11021</v>
+        <v>11022</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="13" spans="1:2" s="0" outlineLevel="0">
       <c r="A13" s="23">
-        <v>11022</v>
+        <v>11023</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
     </row>
     <row r="14" spans="1:2" s="0" outlineLevel="0">
       <c r="A14" s="23">
-        <v>11023</v>
+        <v>11024</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -532,57 +532,57 @@
     </row>
     <row r="15" spans="1:2" s="0" outlineLevel="0">
       <c r="A15" s="23">
-        <v>11024</v>
+        <v>11025</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="16" spans="1:2" s="0" outlineLevel="0">
       <c r="A16" s="23">
-        <v>11025</v>
+        <v>11029</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="17" spans="1:2" s="0" outlineLevel="0">
       <c r="A17" s="23">
-        <v>11029</v>
+        <v>11030</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="18" spans="1:2" s="0" outlineLevel="0">
       <c r="A18" s="23">
-        <v>11030</v>
+        <v>11035</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="19" spans="1:2" s="0" outlineLevel="0">
       <c r="A19" s="23">
-        <v>11035</v>
+        <v>11037</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="20" spans="1:2" s="0" outlineLevel="0">
       <c r="A20" s="23">
-        <v>11037</v>
+        <v>11038</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -592,17 +592,17 @@
     </row>
     <row r="21" spans="1:2" s="0" outlineLevel="0">
       <c r="A21" s="23">
-        <v>11038</v>
+        <v>11039</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="22" spans="1:2" s="0" outlineLevel="0">
       <c r="A22" s="23">
-        <v>11039</v>
+        <v>11040</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -612,117 +612,117 @@
     </row>
     <row r="23" spans="1:2" s="0" outlineLevel="0">
       <c r="A23" s="23">
-        <v>11040</v>
+        <v>11044</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="24" spans="1:2" s="0" outlineLevel="0">
       <c r="A24" s="23">
-        <v>11044</v>
+        <v>11050</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="25" spans="1:2" s="0" outlineLevel="0">
       <c r="A25" s="23">
-        <v>11050</v>
+        <v>11052</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="26" spans="1:2" s="0" outlineLevel="0">
       <c r="A26" s="23">
-        <v>11052</v>
+        <v>11053</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="27" spans="1:2" s="0" outlineLevel="0">
       <c r="A27" s="23">
-        <v>11053</v>
+        <v>11054</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="28" spans="1:2" s="0" outlineLevel="0">
       <c r="A28" s="23">
-        <v>11054</v>
+        <v>11055</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="29" spans="1:2" s="0" outlineLevel="0">
       <c r="A29" s="23">
-        <v>11055</v>
+        <v>11057</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="30" spans="1:2" s="0" outlineLevel="0">
       <c r="A30" s="23">
-        <v>11056</v>
+        <v>12002</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="31" spans="1:2" s="0" outlineLevel="0">
       <c r="A31" s="23">
-        <v>11057</v>
+        <v>12005</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="32" spans="1:2" s="0" outlineLevel="0">
       <c r="A32" s="23">
-        <v>12002</v>
+        <v>12007</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="33" spans="1:2" s="0" outlineLevel="0">
       <c r="A33" s="23">
-        <v>12005</v>
+        <v>12009</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="34" spans="1:2" s="0" outlineLevel="0">
       <c r="A34" s="23">
-        <v>12007</v>
+        <v>12014</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -732,97 +732,97 @@
     </row>
     <row r="35" spans="1:2" s="0" outlineLevel="0">
       <c r="A35" s="23">
-        <v>12009</v>
+        <v>12021</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
     <row r="36" spans="1:2" s="0" outlineLevel="0">
       <c r="A36" s="23">
-        <v>12014</v>
+        <v>12025</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
     <row r="37" spans="1:2" s="0" outlineLevel="0">
       <c r="A37" s="23">
-        <v>12021</v>
+        <v>12026</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="38" spans="1:2" s="0" outlineLevel="0">
       <c r="A38" s="23">
-        <v>12025</v>
+        <v>12029</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="39" spans="1:2" s="0" outlineLevel="0">
       <c r="A39" s="23">
-        <v>12026</v>
+        <v>12035</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="40" spans="1:2" s="0" outlineLevel="0">
       <c r="A40" s="23">
-        <v>12029</v>
+        <v>12040</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="41" spans="1:2" s="0" outlineLevel="0">
       <c r="A41" s="23">
-        <v>12035</v>
+        <v>12041</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="42" spans="1:2" s="0" outlineLevel="0">
       <c r="A42" s="23">
-        <v>12040</v>
+        <v>13001</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="43" spans="1:2" s="0" outlineLevel="0">
       <c r="A43" s="23">
-        <v>12041</v>
+        <v>13002</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="44" spans="1:2" s="0" outlineLevel="0">
       <c r="A44" s="23">
-        <v>13001</v>
+        <v>13003</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -832,47 +832,47 @@
     </row>
     <row r="45" spans="1:2" s="0" outlineLevel="0">
       <c r="A45" s="23">
-        <v>13002</v>
+        <v>13004</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="46" spans="1:2" s="0" outlineLevel="0">
       <c r="A46" s="23">
-        <v>13003</v>
+        <v>13006</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="47" spans="1:2" s="0" outlineLevel="0">
       <c r="A47" s="23">
-        <v>13004</v>
+        <v>13008</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
     <row r="48" spans="1:2" s="0" outlineLevel="0">
       <c r="A48" s="23">
-        <v>13006</v>
+        <v>13010</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="49" spans="1:2" s="0" outlineLevel="0">
       <c r="A49" s="23">
-        <v>13008</v>
+        <v>13011</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
     </row>
     <row r="50" spans="1:2" s="0" outlineLevel="0">
       <c r="A50" s="23">
-        <v>13010</v>
+        <v>13012</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -892,67 +892,67 @@
     </row>
     <row r="51" spans="1:2" s="0" outlineLevel="0">
       <c r="A51" s="23">
-        <v>13011</v>
+        <v>13013</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="52" spans="1:2" s="0" outlineLevel="0">
       <c r="A52" s="23">
-        <v>13012</v>
+        <v>13014</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="53" spans="1:2" s="0" outlineLevel="0">
       <c r="A53" s="23">
-        <v>13013</v>
+        <v>13016</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="54" spans="1:2" s="0" outlineLevel="0">
       <c r="A54" s="23">
-        <v>13014</v>
+        <v>13017</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="55" spans="1:2" s="0" outlineLevel="0">
       <c r="A55" s="23">
-        <v>13016</v>
+        <v>13019</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="56" spans="1:2" s="0" outlineLevel="0">
       <c r="A56" s="23">
-        <v>13017</v>
+        <v>13021</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="57" spans="1:2" s="0" outlineLevel="0">
       <c r="A57" s="23">
-        <v>13019</v>
+        <v>13023</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -962,77 +962,77 @@
     </row>
     <row r="58" spans="1:2" s="0" outlineLevel="0">
       <c r="A58" s="23">
-        <v>13021</v>
+        <v>13025</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
     <row r="59" spans="1:2" s="0" outlineLevel="0">
       <c r="A59" s="23">
-        <v>13023</v>
+        <v>13029</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="60" spans="1:2" s="0" outlineLevel="0">
       <c r="A60" s="23">
-        <v>13025</v>
+        <v>13031</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="61" spans="1:2" s="0" outlineLevel="0">
       <c r="A61" s="23">
-        <v>13029</v>
+        <v>13035</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="62" spans="1:2" s="0" outlineLevel="0">
       <c r="A62" s="23">
-        <v>13031</v>
+        <v>13036</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="63" spans="1:2" s="0" outlineLevel="0">
       <c r="A63" s="23">
-        <v>13035</v>
+        <v>13037</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="64" spans="1:2" s="0" outlineLevel="0">
       <c r="A64" s="23">
-        <v>13036</v>
+        <v>13040</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
     <row r="65" spans="1:2" s="0" outlineLevel="0">
       <c r="A65" s="23">
-        <v>13037</v>
+        <v>13044</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1042,67 +1042,67 @@
     </row>
     <row r="66" spans="1:2" s="0" outlineLevel="0">
       <c r="A66" s="23">
-        <v>13040</v>
+        <v>13046</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="67" spans="1:2" s="0" outlineLevel="0">
       <c r="A67" s="23">
-        <v>13044</v>
+        <v>13049</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="68" spans="1:2" s="0" outlineLevel="0">
       <c r="A68" s="23">
-        <v>13046</v>
+        <v>13053</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="69" spans="1:2" s="0" outlineLevel="0">
       <c r="A69" s="23">
-        <v>13049</v>
+        <v>23002</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="70" spans="1:2" s="0" outlineLevel="0">
       <c r="A70" s="23">
-        <v>13053</v>
+        <v>23003</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="71" spans="1:2" s="0" outlineLevel="0">
       <c r="A71" s="23">
-        <v>23002</v>
+        <v>23009</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="72" spans="1:2" s="0" outlineLevel="0">
       <c r="A72" s="23">
-        <v>23003</v>
+        <v>23016</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1112,37 +1112,37 @@
     </row>
     <row r="73" spans="1:2" s="0" outlineLevel="0">
       <c r="A73" s="23">
-        <v>23009</v>
+        <v>23025</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="74" spans="1:2" s="0" outlineLevel="0">
       <c r="A74" s="23">
-        <v>23016</v>
+        <v>23027</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="75" spans="1:2" s="0" outlineLevel="0">
       <c r="A75" s="23">
-        <v>23023</v>
+        <v>23033</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="76" spans="1:2" s="0" outlineLevel="0">
       <c r="A76" s="23">
-        <v>23024</v>
+        <v>23038</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1152,37 +1152,37 @@
     </row>
     <row r="77" spans="1:2" s="0" outlineLevel="0">
       <c r="A77" s="23">
-        <v>23025</v>
+        <v>23039</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="78" spans="1:2" s="0" outlineLevel="0">
       <c r="A78" s="23">
-        <v>23027</v>
+        <v>23044</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="79" spans="1:2" s="0" outlineLevel="0">
       <c r="A79" s="23">
-        <v>23032</v>
+        <v>23045</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="80" spans="1:2" s="0" outlineLevel="0">
       <c r="A80" s="23">
-        <v>23033</v>
+        <v>23047</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1192,27 +1192,27 @@
     </row>
     <row r="81" spans="1:2" s="0" outlineLevel="0">
       <c r="A81" s="23">
-        <v>23038</v>
+        <v>23050</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="82" spans="1:2" s="0" outlineLevel="0">
       <c r="A82" s="23">
-        <v>23039</v>
+        <v>23052</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="83" spans="1:2" s="0" outlineLevel="0">
       <c r="A83" s="23">
-        <v>23044</v>
+        <v>23060</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1222,17 +1222,17 @@
     </row>
     <row r="84" spans="1:2" s="0" outlineLevel="0">
       <c r="A84" s="23">
-        <v>23045</v>
+        <v>23062</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="85" spans="1:2" s="0" outlineLevel="0">
       <c r="A85" s="23">
-        <v>23047</v>
+        <v>23064</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="86" spans="1:2" s="0" outlineLevel="0">
       <c r="A86" s="23">
-        <v>23050</v>
+        <v>23077</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1252,47 +1252,47 @@
     </row>
     <row r="87" spans="1:2" s="0" outlineLevel="0">
       <c r="A87" s="23">
-        <v>23052</v>
+        <v>23081</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="88" spans="1:2" s="0" outlineLevel="0">
       <c r="A88" s="23">
-        <v>23060</v>
+        <v>23086</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="89" spans="1:2" s="0" outlineLevel="0">
       <c r="A89" s="23">
-        <v>23062</v>
+        <v>23088</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="90" spans="1:2" s="0" outlineLevel="0">
       <c r="A90" s="23">
-        <v>23064</v>
+        <v>23094</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="91" spans="1:2" s="0" outlineLevel="0">
       <c r="A91" s="23">
-        <v>23077</v>
+        <v>23096</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1302,47 +1302,47 @@
     </row>
     <row r="92" spans="1:2" s="0" outlineLevel="0">
       <c r="A92" s="23">
-        <v>23081</v>
+        <v>23097</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="93" spans="1:2" s="0" outlineLevel="0">
       <c r="A93" s="23">
-        <v>23086</v>
+        <v>23098</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="94" spans="1:2" s="0" outlineLevel="0">
       <c r="A94" s="23">
-        <v>23088</v>
+        <v>23099</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="95" spans="1:2" s="0" outlineLevel="0">
       <c r="A95" s="23">
-        <v>23094</v>
+        <v>23100</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="96" spans="1:2" s="0" outlineLevel="0">
       <c r="A96" s="23">
-        <v>23096</v>
+        <v>23101</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1352,17 +1352,17 @@
     </row>
     <row r="97" spans="1:2" s="0" outlineLevel="0">
       <c r="A97" s="23">
-        <v>23097</v>
+        <v>23102</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="98" spans="1:2" s="0" outlineLevel="0">
       <c r="A98" s="23">
-        <v>23098</v>
+        <v>23103</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1372,27 +1372,27 @@
     </row>
     <row r="99" spans="1:2" s="0" outlineLevel="0">
       <c r="A99" s="23">
-        <v>23099</v>
+        <v>23104</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="100" spans="1:2" s="0" outlineLevel="0">
       <c r="A100" s="23">
-        <v>23100</v>
+        <v>23105</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="101" spans="1:2" s="0" outlineLevel="0">
       <c r="A101" s="23">
-        <v>23101</v>
+        <v>23106</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1402,57 +1402,57 @@
     </row>
     <row r="102" spans="1:2" s="0" outlineLevel="0">
       <c r="A102" s="23">
-        <v>23102</v>
+        <v>24001</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
     <row r="103" spans="1:2" s="0" outlineLevel="0">
       <c r="A103" s="23">
-        <v>23103</v>
+        <v>24007</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="104" spans="1:2" s="0" outlineLevel="0">
       <c r="A104" s="23">
-        <v>23104</v>
+        <v>24008</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="105" spans="1:2" s="0" outlineLevel="0">
       <c r="A105" s="23">
-        <v>23105</v>
+        <v>24009</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="106" spans="1:2" s="0" outlineLevel="0">
       <c r="A106" s="23">
-        <v>24001</v>
+        <v>24011</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="107" spans="1:2" s="0" outlineLevel="0">
       <c r="A107" s="23">
-        <v>24007</v>
+        <v>24014</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -1462,97 +1462,97 @@
     </row>
     <row r="108" spans="1:2" s="0" outlineLevel="0">
       <c r="A108" s="23">
-        <v>24008</v>
+        <v>24016</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="109" spans="1:2" s="0" outlineLevel="0">
       <c r="A109" s="23">
-        <v>24009</v>
+        <v>24020</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
     <row r="110" spans="1:2" s="0" outlineLevel="0">
       <c r="A110" s="23">
-        <v>24011</v>
+        <v>24028</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="111" spans="1:2" s="0" outlineLevel="0">
       <c r="A111" s="23">
-        <v>24014</v>
+        <v>24033</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="112" spans="1:2" s="0" outlineLevel="0">
       <c r="A112" s="23">
-        <v>24016</v>
+        <v>24038</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="113" spans="1:2" s="0" outlineLevel="0">
       <c r="A113" s="23">
-        <v>24020</v>
+        <v>24041</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="114" spans="1:2" s="0" outlineLevel="0">
       <c r="A114" s="23">
-        <v>24028</v>
+        <v>24043</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="115" spans="1:2" s="0" outlineLevel="0">
       <c r="A115" s="23">
-        <v>24033</v>
+        <v>24045</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="116" spans="1:2" s="0" outlineLevel="0">
       <c r="A116" s="23">
-        <v>24038</v>
+        <v>24048</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="117" spans="1:2" s="0" outlineLevel="0">
       <c r="A117" s="23">
-        <v>24041</v>
+        <v>24054</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -1562,217 +1562,217 @@
     </row>
     <row r="118" spans="1:2" s="0" outlineLevel="0">
       <c r="A118" s="23">
-        <v>24043</v>
+        <v>24055</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="119" spans="1:2" s="0" outlineLevel="0">
       <c r="A119" s="23">
-        <v>24045</v>
+        <v>24059</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="120" spans="1:2" s="0" outlineLevel="0">
       <c r="A120" s="23">
-        <v>24048</v>
+        <v>24062</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
     <row r="121" spans="1:2" s="0" outlineLevel="0">
       <c r="A121" s="23">
-        <v>24054</v>
+        <v>24066</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="122" spans="1:2" s="0" outlineLevel="0">
       <c r="A122" s="23">
-        <v>24055</v>
+        <v>24086</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="123" spans="1:2" s="0" outlineLevel="0">
       <c r="A123" s="23">
-        <v>24059</v>
+        <v>24094</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="124" spans="1:2" s="0" outlineLevel="0">
       <c r="A124" s="23">
-        <v>24062</v>
+        <v>24104</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="125" spans="1:2" s="0" outlineLevel="0">
       <c r="A125" s="23">
-        <v>24066</v>
+        <v>24107</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="126" spans="1:2" s="0" outlineLevel="0">
       <c r="A126" s="23">
-        <v>24086</v>
+        <v>24109</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="127" spans="1:2" s="0" outlineLevel="0">
       <c r="A127" s="23">
-        <v>24094</v>
+        <v>24130</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="128" spans="1:2" s="0" outlineLevel="0">
       <c r="A128" s="23">
-        <v>24104</v>
+        <v>24133</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="129" spans="1:2" s="0" outlineLevel="0">
       <c r="A129" s="23">
-        <v>24107</v>
+        <v>24134</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="130" spans="1:2" s="0" outlineLevel="0">
       <c r="A130" s="23">
-        <v>24109</v>
+        <v>24135</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="131" spans="1:2" s="0" outlineLevel="0">
       <c r="A131" s="23">
-        <v>24130</v>
+        <v>24137</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="132" spans="1:2" s="0" outlineLevel="0">
       <c r="A132" s="23">
-        <v>24133</v>
+        <v>31003</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="133" spans="1:2" s="0" outlineLevel="0">
       <c r="A133" s="23">
-        <v>24134</v>
+        <v>31004</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="134" spans="1:2" s="0" outlineLevel="0">
       <c r="A134" s="23">
-        <v>24135</v>
+        <v>31005</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
     <row r="135" spans="1:2" s="0" outlineLevel="0">
       <c r="A135" s="23">
-        <v>24137</v>
+        <v>31006</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="136" spans="1:2" s="0" outlineLevel="0">
       <c r="A136" s="23">
-        <v>31003</v>
+        <v>31012</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="137" spans="1:2" s="0" outlineLevel="0">
       <c r="A137" s="23">
-        <v>31004</v>
+        <v>31022</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="138" spans="1:2" s="0" outlineLevel="0">
       <c r="A138" s="23">
-        <v>31005</v>
+        <v>31033</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="139" spans="1:2" s="0" outlineLevel="0">
       <c r="A139" s="23">
-        <v>31006</v>
+        <v>31040</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="140" spans="1:2" s="0" outlineLevel="0">
       <c r="A140" s="23">
-        <v>31012</v>
+        <v>31042</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -1792,17 +1792,17 @@
     </row>
     <row r="141" spans="1:2" s="0" outlineLevel="0">
       <c r="A141" s="23">
-        <v>31022</v>
+        <v>31043</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
     <row r="142" spans="1:2" s="0" outlineLevel="0">
       <c r="A142" s="23">
-        <v>31033</v>
+        <v>32003</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -1812,97 +1812,97 @@
     </row>
     <row r="143" spans="1:2" s="0" outlineLevel="0">
       <c r="A143" s="23">
-        <v>31040</v>
+        <v>32006</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="144" spans="1:2" s="0" outlineLevel="0">
       <c r="A144" s="23">
-        <v>31042</v>
+        <v>32010</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="145" spans="1:2" s="0" outlineLevel="0">
       <c r="A145" s="23">
-        <v>31043</v>
+        <v>32011</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="146" spans="1:2" s="0" outlineLevel="0">
       <c r="A146" s="23">
-        <v>32003</v>
+        <v>32030</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="147" spans="1:2" s="0" outlineLevel="0">
       <c r="A147" s="23">
-        <v>32006</v>
+        <v>33011</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
     <row r="148" spans="1:2" s="0" outlineLevel="0">
       <c r="A148" s="23">
-        <v>32010</v>
+        <v>33016</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="149" spans="1:2" s="0" outlineLevel="0">
       <c r="A149" s="23">
-        <v>32011</v>
+        <v>33021</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="150" spans="1:2" s="0" outlineLevel="0">
       <c r="A150" s="23">
-        <v>32030</v>
+        <v>33029</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="151" spans="1:2" s="0" outlineLevel="0">
       <c r="A151" s="23">
-        <v>33011</v>
+        <v>33037</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="152" spans="1:2" s="0" outlineLevel="0">
       <c r="A152" s="23">
-        <v>33016</v>
+        <v>33039</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -1912,117 +1912,117 @@
     </row>
     <row r="153" spans="1:2" s="0" outlineLevel="0">
       <c r="A153" s="23">
-        <v>33021</v>
+        <v>33040</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="154" spans="1:2" s="0" outlineLevel="0">
       <c r="A154" s="23">
-        <v>33029</v>
+        <v>33041</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="155" spans="1:2" s="0" outlineLevel="0">
       <c r="A155" s="23">
-        <v>33037</v>
+        <v>34002</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="156" spans="1:2" s="0" outlineLevel="0">
       <c r="A156" s="23">
-        <v>33039</v>
+        <v>34003</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="157" spans="1:2" s="0" outlineLevel="0">
       <c r="A157" s="23">
-        <v>33040</v>
+        <v>34009</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="158" spans="1:2" s="0" outlineLevel="0">
       <c r="A158" s="23">
-        <v>33041</v>
+        <v>34013</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="159" spans="1:2" s="0" outlineLevel="0">
       <c r="A159" s="23">
-        <v>34002</v>
+        <v>34022</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
     <row r="160" spans="1:2" s="0" outlineLevel="0">
       <c r="A160" s="23">
-        <v>34003</v>
+        <v>34023</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="161" spans="1:2" s="0" outlineLevel="0">
       <c r="A161" s="23">
-        <v>34009</v>
+        <v>34025</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="162" spans="1:2" s="0" outlineLevel="0">
       <c r="A162" s="23">
-        <v>34013</v>
+        <v>34027</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="163" spans="1:2" s="0" outlineLevel="0">
       <c r="A163" s="23">
-        <v>34022</v>
+        <v>34040</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
     <row r="164" spans="1:2" s="0" outlineLevel="0">
       <c r="A164" s="23">
-        <v>34023</v>
+        <v>34041</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2032,37 +2032,37 @@
     </row>
     <row r="165" spans="1:2" s="0" outlineLevel="0">
       <c r="A165" s="23">
-        <v>34025</v>
+        <v>34042</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="166" spans="1:2" s="0" outlineLevel="0">
       <c r="A166" s="23">
-        <v>34027</v>
+        <v>34043</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="167" spans="1:2" s="0" outlineLevel="0">
       <c r="A167" s="23">
-        <v>34040</v>
+        <v>35002</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="168" spans="1:2" s="0" outlineLevel="0">
       <c r="A168" s="23">
-        <v>34041</v>
+        <v>35005</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -2072,107 +2072,107 @@
     </row>
     <row r="169" spans="1:2" s="0" outlineLevel="0">
       <c r="A169" s="23">
-        <v>34042</v>
+        <v>35006</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="170" spans="1:2" s="0" outlineLevel="0">
       <c r="A170" s="23">
-        <v>34043</v>
+        <v>35011</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="171" spans="1:2" s="0" outlineLevel="0">
       <c r="A171" s="23">
-        <v>35002</v>
+        <v>35013</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
     <row r="172" spans="1:2" s="0" outlineLevel="0">
       <c r="A172" s="23">
-        <v>35005</v>
+        <v>35014</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="173" spans="1:2" s="0" outlineLevel="0">
       <c r="A173" s="23">
-        <v>35006</v>
+        <v>35029</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="174" spans="1:2" s="0" outlineLevel="0">
       <c r="A174" s="23">
-        <v>35011</v>
+        <v>36006</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="175" spans="1:2" s="0" outlineLevel="0">
       <c r="A175" s="23">
-        <v>35013</v>
+        <v>36007</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="176" spans="1:2" s="0" outlineLevel="0">
       <c r="A176" s="23">
-        <v>35014</v>
+        <v>36008</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="177" spans="1:2" s="0" outlineLevel="0">
       <c r="A177" s="23">
-        <v>35029</v>
+        <v>36010</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="178" spans="1:2" s="0" outlineLevel="0">
       <c r="A178" s="23">
-        <v>36006</v>
+        <v>36011</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="179" spans="1:2" s="0" outlineLevel="0">
       <c r="A179" s="23">
-        <v>36007</v>
+        <v>36012</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -2182,27 +2182,27 @@
     </row>
     <row r="180" spans="1:2" s="0" outlineLevel="0">
       <c r="A180" s="23">
-        <v>36008</v>
+        <v>36015</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
     <row r="181" spans="1:2" s="0" outlineLevel="0">
       <c r="A181" s="23">
-        <v>36010</v>
+        <v>36019</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="182" spans="1:2" s="0" outlineLevel="0">
       <c r="A182" s="23">
-        <v>36011</v>
+        <v>37002</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -2212,137 +2212,137 @@
     </row>
     <row r="183" spans="1:2" s="0" outlineLevel="0">
       <c r="A183" s="23">
-        <v>36012</v>
+        <v>37010</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="184" spans="1:2" s="0" outlineLevel="0">
       <c r="A184" s="23">
-        <v>36015</v>
+        <v>37011</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="185" spans="1:2" s="0" outlineLevel="0">
       <c r="A185" s="23">
-        <v>36019</v>
+        <v>37017</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="186" spans="1:2" s="0" outlineLevel="0">
       <c r="A186" s="23">
-        <v>37002</v>
+        <v>37020</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="187" spans="1:2" s="0" outlineLevel="0">
       <c r="A187" s="23">
-        <v>37007</v>
+        <v>37021</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="188" spans="1:2" s="0" outlineLevel="0">
       <c r="A188" s="23">
-        <v>37010</v>
+        <v>37022</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="189" spans="1:2" s="0" outlineLevel="0">
       <c r="A189" s="23">
-        <v>37011</v>
+        <v>38002</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="190" spans="1:2" s="0" outlineLevel="0">
       <c r="A190" s="23">
-        <v>37012</v>
+        <v>38008</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="191" spans="1:2" s="0" outlineLevel="0">
       <c r="A191" s="23">
-        <v>37015</v>
+        <v>38014</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="192" spans="1:2" s="0" outlineLevel="0">
       <c r="A192" s="23">
-        <v>37017</v>
+        <v>38016</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="193" spans="1:2" s="0" outlineLevel="0">
       <c r="A193" s="23">
-        <v>37018</v>
+        <v>38025</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="194" spans="1:2" s="0" outlineLevel="0">
       <c r="A194" s="23">
-        <v>37020</v>
+        <v>41002</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
     <row r="195" spans="1:2" s="0" outlineLevel="0">
       <c r="A195" s="23">
-        <v>38002</v>
+        <v>41011</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="196" spans="1:2" s="0" outlineLevel="0">
       <c r="A196" s="23">
-        <v>38008</v>
+        <v>41018</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -2352,57 +2352,57 @@
     </row>
     <row r="197" spans="1:2" s="0" outlineLevel="0">
       <c r="A197" s="23">
-        <v>38014</v>
+        <v>41024</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="198" spans="1:2" s="0" outlineLevel="0">
       <c r="A198" s="23">
-        <v>38016</v>
+        <v>41027</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="199" spans="1:2" s="0" outlineLevel="0">
       <c r="A199" s="23">
-        <v>38025</v>
+        <v>41034</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="200" spans="1:2" s="0" outlineLevel="0">
       <c r="A200" s="23">
-        <v>41002</v>
+        <v>41048</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="201" spans="1:2" s="0" outlineLevel="0">
       <c r="A201" s="23">
-        <v>41011</v>
+        <v>41063</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="202" spans="1:2" s="0" outlineLevel="0">
       <c r="A202" s="23">
-        <v>41018</v>
+        <v>41081</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -2412,27 +2412,27 @@
     </row>
     <row r="203" spans="1:2" s="0" outlineLevel="0">
       <c r="A203" s="23">
-        <v>41024</v>
+        <v>41082</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="204" spans="1:2" s="0" outlineLevel="0">
       <c r="A204" s="23">
-        <v>41027</v>
+        <v>42003</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="205" spans="1:2" s="0" outlineLevel="0">
       <c r="A205" s="23">
-        <v>41034</v>
+        <v>42004</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -2442,37 +2442,37 @@
     </row>
     <row r="206" spans="1:2" s="0" outlineLevel="0">
       <c r="A206" s="23">
-        <v>41048</v>
+        <v>42006</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
     <row r="207" spans="1:2" s="0" outlineLevel="0">
       <c r="A207" s="23">
-        <v>41063</v>
+        <v>42008</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="208" spans="1:2" s="0" outlineLevel="0">
       <c r="A208" s="23">
-        <v>41081</v>
+        <v>42010</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="209" spans="1:2" s="0" outlineLevel="0">
       <c r="A209" s="23">
-        <v>41082</v>
+        <v>42011</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="210" spans="1:2" s="0" outlineLevel="0">
       <c r="A210" s="23">
-        <v>42003</v>
+        <v>42023</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -2492,37 +2492,37 @@
     </row>
     <row r="211" spans="1:2" s="0" outlineLevel="0">
       <c r="A211" s="23">
-        <v>42004</v>
+        <v>42025</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="212" spans="1:2" s="0" outlineLevel="0">
       <c r="A212" s="23">
-        <v>42006</v>
+        <v>42026</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="213" spans="1:2" s="0" outlineLevel="0">
       <c r="A213" s="23">
-        <v>42008</v>
+        <v>42028</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="214" spans="1:2" s="0" outlineLevel="0">
       <c r="A214" s="23">
-        <v>42010</v>
+        <v>43002</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -2532,27 +2532,27 @@
     </row>
     <row r="215" spans="1:2" s="0" outlineLevel="0">
       <c r="A215" s="23">
-        <v>42011</v>
+        <v>43005</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="216" spans="1:2" s="0" outlineLevel="0">
       <c r="A216" s="23">
-        <v>42023</v>
+        <v>43007</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="217" spans="1:2" s="0" outlineLevel="0">
       <c r="A217" s="23">
-        <v>42025</v>
+        <v>43010</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="218" spans="1:2" s="0" outlineLevel="0">
       <c r="A218" s="23">
-        <v>42026</v>
+        <v>43014</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -2572,67 +2572,67 @@
     </row>
     <row r="219" spans="1:2" s="0" outlineLevel="0">
       <c r="A219" s="23">
-        <v>42028</v>
+        <v>43018</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="220" spans="1:2" s="0" outlineLevel="0">
       <c r="A220" s="23">
-        <v>43002</v>
+        <v>44013</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="221" spans="1:2" s="0" outlineLevel="0">
       <c r="A221" s="23">
-        <v>43005</v>
+        <v>44019</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="222" spans="1:2" s="0" outlineLevel="0">
       <c r="A222" s="23">
-        <v>43007</v>
+        <v>44020</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="223" spans="1:2" s="0" outlineLevel="0">
       <c r="A223" s="23">
-        <v>43010</v>
+        <v>44021</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
     <row r="224" spans="1:2" s="0" outlineLevel="0">
       <c r="A224" s="23">
-        <v>43014</v>
+        <v>44052</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="225" spans="1:2" s="0" outlineLevel="0">
       <c r="A225" s="23">
-        <v>43018</v>
+        <v>44064</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -2642,57 +2642,57 @@
     </row>
     <row r="226" spans="1:2" s="0" outlineLevel="0">
       <c r="A226" s="23">
-        <v>44012</v>
+        <v>44081</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="227" spans="1:2" s="0" outlineLevel="0">
       <c r="A227" s="23">
-        <v>44013</v>
+        <v>44083</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="228" spans="1:2" s="0" outlineLevel="0">
       <c r="A228" s="23">
-        <v>44019</v>
+        <v>44084</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="229" spans="1:2" s="0" outlineLevel="0">
       <c r="A229" s="23">
-        <v>44020</v>
+        <v>44085</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="230" spans="1:2" s="0" outlineLevel="0">
       <c r="A230" s="23">
-        <v>44021</v>
+        <v>44086</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="231" spans="1:2" s="0" outlineLevel="0">
       <c r="A231" s="23">
-        <v>44034</v>
+        <v>44087</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="232" spans="1:2" s="0" outlineLevel="0">
       <c r="A232" s="23">
-        <v>44040</v>
+        <v>44088</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -2712,127 +2712,127 @@
     </row>
     <row r="233" spans="1:2" s="0" outlineLevel="0">
       <c r="A233" s="23">
-        <v>44043</v>
+        <v>45035</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
     <row r="234" spans="1:2" s="0" outlineLevel="0">
       <c r="A234" s="23">
-        <v>44045</v>
+        <v>45041</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="235" spans="1:2" s="0" outlineLevel="0">
       <c r="A235" s="23">
-        <v>44048</v>
+        <v>45059</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="236" spans="1:2" s="0" outlineLevel="0">
       <c r="A236" s="23">
-        <v>44052</v>
+        <v>45060</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="237" spans="1:2" s="0" outlineLevel="0">
       <c r="A237" s="23">
-        <v>44064</v>
+        <v>45061</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="238" spans="1:2" s="0" outlineLevel="0">
       <c r="A238" s="23">
-        <v>44073</v>
+        <v>45062</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="239" spans="1:2" s="0" outlineLevel="0">
       <c r="A239" s="23">
-        <v>44081</v>
+        <v>45063</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="240" spans="1:2" s="0" outlineLevel="0">
       <c r="A240" s="23">
-        <v>44083</v>
+        <v>45064</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="241" spans="1:2" s="0" outlineLevel="0">
       <c r="A241" s="23">
-        <v>44084</v>
+        <v>45065</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="242" spans="1:2" s="0" outlineLevel="0">
       <c r="A242" s="23">
-        <v>44085</v>
+        <v>45068</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="243" spans="1:2" s="0" outlineLevel="0">
       <c r="A243" s="23">
-        <v>45035</v>
+        <v>46020</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="244" spans="1:2" s="0" outlineLevel="0">
       <c r="A244" s="23">
-        <v>45041</v>
+        <v>46021</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
     <row r="245" spans="1:2" s="0" outlineLevel="0">
       <c r="A245" s="23">
-        <v>45059</v>
+        <v>46024</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -2842,307 +2842,307 @@
     </row>
     <row r="246" spans="1:2" s="0" outlineLevel="0">
       <c r="A246" s="23">
-        <v>45060</v>
+        <v>46025</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="247" spans="1:2" s="0" outlineLevel="0">
       <c r="A247" s="23">
-        <v>45061</v>
+        <v>46029</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="248" spans="1:2" s="0" outlineLevel="0">
       <c r="A248" s="23">
-        <v>45062</v>
+        <v>46030</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="249" spans="1:2" s="0" outlineLevel="0">
       <c r="A249" s="23">
-        <v>45063</v>
+        <v>71002</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="250" spans="1:2" s="0" outlineLevel="0">
       <c r="A250" s="23">
-        <v>45064</v>
+        <v>71004</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="251" spans="1:2" s="0" outlineLevel="0">
       <c r="A251" s="23">
-        <v>45065</v>
+        <v>71011</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="252" spans="1:2" s="0" outlineLevel="0">
       <c r="A252" s="23">
-        <v>45068</v>
+        <v>71016</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
     <row r="253" spans="1:2" s="0" outlineLevel="0">
       <c r="A253" s="23">
-        <v>46003</v>
+        <v>71017</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="254" spans="1:2" s="0" outlineLevel="0">
       <c r="A254" s="23">
-        <v>46013</v>
+        <v>71020</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="255" spans="1:2" s="0" outlineLevel="0">
       <c r="A255" s="23">
-        <v>46014</v>
+        <v>71024</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="256" spans="1:2" s="0" outlineLevel="0">
       <c r="A256" s="23">
-        <v>46020</v>
+        <v>71034</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="257" spans="1:2" s="0" outlineLevel="0">
       <c r="A257" s="23">
-        <v>46021</v>
+        <v>71037</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="258" spans="1:2" s="0" outlineLevel="0">
       <c r="A258" s="23">
-        <v>46024</v>
+        <v>71045</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="259" spans="1:2" s="0" outlineLevel="0">
       <c r="A259" s="23">
-        <v>46025</v>
+        <v>71053</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>a1</t>
         </is>
       </c>
     </row>
     <row r="260" spans="1:2" s="0" outlineLevel="0">
       <c r="A260" s="23">
-        <v>71002</v>
+        <v>71066</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="261" spans="1:2" s="0" outlineLevel="0">
       <c r="A261" s="23">
-        <v>71004</v>
+        <v>71067</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>b1</t>
         </is>
       </c>
     </row>
     <row r="262" spans="1:2" s="0" outlineLevel="0">
       <c r="A262" s="23">
-        <v>71011</v>
+        <v>71070</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="263" spans="1:2" s="0" outlineLevel="0">
       <c r="A263" s="23">
-        <v>71016</v>
+        <v>71071</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="264" spans="1:2" s="0" outlineLevel="0">
       <c r="A264" s="23">
-        <v>71017</v>
+        <v>71072</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>a0</t>
         </is>
       </c>
     </row>
     <row r="265" spans="1:2" s="0" outlineLevel="0">
       <c r="A265" s="23">
-        <v>71020</v>
+        <v>72003</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="266" spans="1:2" s="0" outlineLevel="0">
       <c r="A266" s="23">
-        <v>71022</v>
+        <v>72004</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="267" spans="1:2" s="0" outlineLevel="0">
       <c r="A267" s="23">
-        <v>71024</v>
+        <v>72018</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="268" spans="1:2" s="0" outlineLevel="0">
       <c r="A268" s="23">
-        <v>71034</v>
+        <v>72020</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="269" spans="1:2" s="0" outlineLevel="0">
       <c r="A269" s="23">
-        <v>71037</v>
+        <v>72021</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="270" spans="1:2" s="0" outlineLevel="0">
       <c r="A270" s="23">
-        <v>71045</v>
+        <v>72030</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>c3</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="271" spans="1:2" s="0" outlineLevel="0">
       <c r="A271" s="23">
-        <v>71053</v>
+        <v>72037</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="272" spans="1:2" s="0" outlineLevel="0">
       <c r="A272" s="23">
-        <v>71057</v>
+        <v>72038</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="273" spans="1:2" s="0" outlineLevel="0">
       <c r="A273" s="23">
-        <v>71066</v>
+        <v>72039</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>b0</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="274" spans="1:2" s="0" outlineLevel="0">
       <c r="A274" s="23">
-        <v>71067</v>
+        <v>72041</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>b1</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="275" spans="1:2" s="0" outlineLevel="0">
       <c r="A275" s="23">
-        <v>71069</v>
+        <v>72042</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c1</t>
         </is>
       </c>
     </row>
     <row r="276" spans="1:2" s="0" outlineLevel="0">
       <c r="A276" s="23">
-        <v>71070</v>
+        <v>72043</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -3152,77 +3152,77 @@
     </row>
     <row r="277" spans="1:2" s="0" outlineLevel="0">
       <c r="A277" s="23">
-        <v>72003</v>
+        <v>73001</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>b0</t>
         </is>
       </c>
     </row>
     <row r="278" spans="1:2" s="0" outlineLevel="0">
       <c r="A278" s="23">
-        <v>72004</v>
+        <v>73022</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="279" spans="1:2" s="0" outlineLevel="0">
       <c r="A279" s="23">
-        <v>72018</v>
+        <v>73028</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>c2</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="280" spans="1:2" s="0" outlineLevel="0">
       <c r="A280" s="23">
-        <v>72020</v>
+        <v>73042</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="281" spans="1:2" s="0" outlineLevel="0">
       <c r="A281" s="23">
-        <v>72021</v>
+        <v>73066</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>c2</t>
         </is>
       </c>
     </row>
     <row r="282" spans="1:2" s="0" outlineLevel="0">
       <c r="A282" s="23">
-        <v>72030</v>
+        <v>73098</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c3</t>
         </is>
       </c>
     </row>
     <row r="283" spans="1:2" s="0" outlineLevel="0">
       <c r="A283" s="23">
-        <v>72037</v>
+        <v>73107</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>c0</t>
         </is>
       </c>
     </row>
     <row r="284" spans="1:2" s="0" outlineLevel="0">
       <c r="A284" s="23">
-        <v>72038</v>
+        <v>73109</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -3232,171 +3232,21 @@
     </row>
     <row r="285" spans="1:2" s="0" outlineLevel="0">
       <c r="A285" s="23">
-        <v>72039</v>
+        <v>73110</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>c0</t>
+          <t>a2</t>
         </is>
       </c>
     </row>
     <row r="286" spans="1:2" s="0" outlineLevel="0">
       <c r="A286" s="23">
-        <v>72041</v>
+        <v>73111</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>c1</t>
-        </is>
-      </c>
-    </row>
-    <row r="287" spans="1:2" s="0" outlineLevel="0">
-      <c r="A287" s="23">
-        <v>72042</v>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-    </row>
-    <row r="288" spans="1:2" s="0" outlineLevel="0">
-      <c r="A288" s="23">
-        <v>72043</v>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>c0</t>
-        </is>
-      </c>
-    </row>
-    <row r="289" spans="1:2" s="0" outlineLevel="0">
-      <c r="A289" s="23">
-        <v>73001</v>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>b0</t>
-        </is>
-      </c>
-    </row>
-    <row r="290" spans="1:2" s="0" outlineLevel="0">
-      <c r="A290" s="23">
-        <v>73006</v>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>c0</t>
-        </is>
-      </c>
-    </row>
-    <row r="291" spans="1:2" s="0" outlineLevel="0">
-      <c r="A291" s="23">
-        <v>73009</v>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-    </row>
-    <row r="292" spans="1:2" s="0" outlineLevel="0">
-      <c r="A292" s="23">
-        <v>73022</v>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-    </row>
-    <row r="293" spans="1:2" s="0" outlineLevel="0">
-      <c r="A293" s="23">
-        <v>73028</v>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-    </row>
-    <row r="294" spans="1:2" s="0" outlineLevel="0">
-      <c r="A294" s="23">
-        <v>73032</v>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
-      </c>
-    </row>
-    <row r="295" spans="1:2" s="0" outlineLevel="0">
-      <c r="A295" s="23">
-        <v>73040</v>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-    </row>
-    <row r="296" spans="1:2" s="0" outlineLevel="0">
-      <c r="A296" s="23">
-        <v>73042</v>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>c0</t>
-        </is>
-      </c>
-    </row>
-    <row r="297" spans="1:2" s="0" outlineLevel="0">
-      <c r="A297" s="23">
-        <v>73066</v>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
-      </c>
-    </row>
-    <row r="298" spans="1:2" s="0" outlineLevel="0">
-      <c r="A298" s="23">
-        <v>73083</v>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
           <t>a1</t>
-        </is>
-      </c>
-    </row>
-    <row r="299" spans="1:2" s="0" outlineLevel="0">
-      <c r="A299" s="23">
-        <v>73098</v>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>c3</t>
-        </is>
-      </c>
-    </row>
-    <row r="300" spans="1:2" s="0" outlineLevel="0">
-      <c r="A300" s="23">
-        <v>73107</v>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>c0</t>
-        </is>
-      </c>
-    </row>
-    <row r="301" spans="1:2" s="0" outlineLevel="0">
-      <c r="A301" s="23">
-        <v>73109</v>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>c2</t>
         </is>
       </c>
     </row>
